--- a/Bagian B/Otomasi Bagian B/Data Files/Doc/CloneOffice.xlsx
+++ b/Bagian B/Otomasi Bagian B/Data Files/Doc/CloneOffice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Alami\Bagian B\Otomasi Bagian B\Data Files\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALAMI-Sharia\Bagian B\Otomasi Bagian B\Data Files\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="19">
   <si>
     <t>city</t>
   </si>
@@ -125,11 +125,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -413,13 +414,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -987,8 +990,8 @@
       <c r="F22" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>11</v>
+      <c r="G22" s="4">
+        <v>123456789012345</v>
       </c>
       <c r="H22" t="s">
         <v>8</v>
@@ -1068,8 +1071,8 @@
       <c r="G25">
         <v>55310</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>11</v>
+      <c r="H25" s="4">
+        <v>1234567890</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1107,5 +1110,6 @@
     <hyperlink ref="H26" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>